--- a/save/eis_line_list_final.xlsx
+++ b/save/eis_line_list_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E981141-155A-0742-9115-1C01D5822054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124A572-B17D-EE4B-AF5C-CA679240A756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1220" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="5300" yWindow="1220" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="59">
   <si>
     <t>ion</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>fwhm_awsom</t>
   </si>
   <si>
     <t>ix</t>
@@ -205,6 +202,15 @@
   <si>
     <t>sim too hot</t>
   </si>
+  <si>
+    <t>fwhm_awsom_fit</t>
+  </si>
+  <si>
+    <t>fwhm_awsom_err</t>
+  </si>
+  <si>
+    <t>fwhm_awsom_true</t>
+  </si>
 </sst>
 </file>
 
@@ -246,10 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,18 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,16 +617,22 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -648,18 +664,24 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="K2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L2" t="s">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="M2">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -683,13 +705,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K3">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -721,18 +749,24 @@
         <v>4.07E-2</v>
       </c>
       <c r="K4">
-        <v>4.36E-2</v>
-      </c>
-      <c r="L4" t="s">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -759,13 +793,19 @@
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="K5">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="L5" t="s">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L5">
+        <v>1E-4</v>
+      </c>
+      <c r="M5">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="N5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -797,18 +837,24 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="K6">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M6">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -835,18 +881,24 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="K7">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M7">
+        <v>4.99E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -873,13 +925,19 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="L8" t="s">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L8">
+        <v>1E-3</v>
+      </c>
+      <c r="M8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -911,18 +969,24 @@
         <v>3.56E-2</v>
       </c>
       <c r="K9">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="L9" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L9">
+        <v>1E-4</v>
+      </c>
+      <c r="M9">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="N9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -949,18 +1013,24 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="K10">
-        <v>4.1029999999999997E-2</v>
-      </c>
-      <c r="L10" t="s">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M10">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="N10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -987,21 +1057,27 @@
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="K11">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L11">
+        <v>1E-4</v>
+      </c>
+      <c r="M11">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1028,18 +1104,24 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="K12">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="L12" t="s">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M12">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="N12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1066,18 +1148,24 @@
         <v>6.83E-2</v>
       </c>
       <c r="K13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L13" t="s">
+        <v>0.08</v>
+      </c>
+      <c r="L13">
+        <v>2E-3</v>
+      </c>
+      <c r="M13">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1104,18 +1192,24 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M14">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1142,18 +1236,24 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M15">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1180,18 +1280,24 @@
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="K16">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="L16" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M16">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="N16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1218,18 +1324,24 @@
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="K17">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1256,18 +1368,24 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="K18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M18">
+        <v>4.36E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1294,18 +1412,24 @@
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="K19">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M19">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1332,13 +1456,19 @@
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="K20">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="L20" t="s">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M20">
+        <v>4.41E-2</v>
+      </c>
+      <c r="N20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1370,18 +1500,24 @@
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="K21">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="L21" t="s">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="M21">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="N21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1408,18 +1544,24 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="K22">
-        <v>5.74E-2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M22">
+        <v>5.67E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1446,18 +1588,24 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="K23">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="L23" t="s">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M23">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1484,18 +1632,24 @@
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="K24">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M24">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -1522,18 +1676,24 @@
         <v>4.19E-2</v>
       </c>
       <c r="K25">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="L25" t="s">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M25">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="N25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1560,18 +1720,24 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="K26">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="L26" t="s">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M26">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="N26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1598,13 +1764,19 @@
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="K27">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="L27" t="s">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M27">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="N27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1636,18 +1808,24 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="K28">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="L28" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1671,15 +1849,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K29">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M29">
+        <v>4.19E-2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -1709,18 +1893,24 @@
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="K30">
-        <v>0.05</v>
-      </c>
-      <c r="L30" t="s">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M30">
+        <v>5.04E-2</v>
+      </c>
+      <c r="N30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1747,18 +1937,24 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="K31">
-        <v>4.41E-2</v>
-      </c>
-      <c r="L31" t="s">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="N31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -1785,18 +1981,24 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="K32">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="L32" t="s">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M32">
+        <v>6.13E-2</v>
+      </c>
+      <c r="N32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1820,18 +2022,24 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K33">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M33">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1858,21 +2066,27 @@
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="K34">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M34">
+        <v>0.05</v>
+      </c>
+      <c r="N34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1899,18 +2113,24 @@
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="K35">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="L35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M35">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -1933,16 +2153,16 @@
       <c r="I36">
         <v>0.02</v>
       </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1969,21 +2189,27 @@
         <v>5.5E-2</v>
       </c>
       <c r="K37">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="L37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M37">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -2010,18 +2236,24 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K38">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="L38" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M38">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="N38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2048,18 +2280,24 @@
         <v>6.3100000000000003E-2</v>
       </c>
       <c r="K39">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M39">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2086,13 +2324,19 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="K40">
-        <v>5.16E-2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M40">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2124,18 +2368,24 @@
         <v>4.7E-2</v>
       </c>
       <c r="K41">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="L41" t="s">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M41">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -2162,18 +2412,24 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="K42">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="L42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M42">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -2200,18 +2456,24 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="K43">
-        <v>6.93E-2</v>
-      </c>
-      <c r="L43" t="s">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M43">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="N43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -2238,18 +2500,24 @@
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="K44">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="L44" t="s">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M44">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="N44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -2273,18 +2541,24 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K45">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M45">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2311,15 +2585,21 @@
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="K46">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="L46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M46">
+        <v>4.41E-2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2346,18 +2626,24 @@
         <v>0.06</v>
       </c>
       <c r="K47">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="L47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M47">
+        <v>5.21E-2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -2384,18 +2670,24 @@
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="K48">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="L48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M48">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -2422,16 +2714,22 @@
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="K49">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="L49" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M49">
+        <v>7.22E-2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2463,21 +2761,27 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K50">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="L50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M50">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2501,18 +2805,24 @@
         <v>0.02</v>
       </c>
       <c r="K51">
-        <v>5.79E-2</v>
-      </c>
-      <c r="L51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M51">
+        <v>6.08E-2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -2535,16 +2845,16 @@
       <c r="I52">
         <v>0.03</v>
       </c>
-      <c r="L52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -2571,15 +2881,24 @@
         <v>8.0600000000000005E-2</v>
       </c>
       <c r="K53">
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M53">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -2606,21 +2925,27 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="K54">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="L54" t="s">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M54">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="N54" t="s">
         <v>11</v>
       </c>
-      <c r="M54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -2647,18 +2972,24 @@
         <v>1.66E-2</v>
       </c>
       <c r="K55">
-        <v>6.93E-2</v>
-      </c>
-      <c r="L55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M55">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -2682,18 +3013,24 @@
         <v>0.03</v>
       </c>
       <c r="K56">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="L56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M56">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -2717,13 +3054,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K57">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="L57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M57">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2752,18 +3095,24 @@
         <v>0.03</v>
       </c>
       <c r="K58">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="L58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="L58" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M58">
+        <v>5.67E-2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -2790,18 +3139,24 @@
         <v>6.4899999999999999E-2</v>
       </c>
       <c r="K59">
-        <v>5.62E-2</v>
-      </c>
-      <c r="L59" t="s">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="L59" s="3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="M59">
+        <v>5.74E-2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2828,18 +3183,24 @@
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="K60">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="L60" t="s">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -2866,18 +3227,24 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="K61">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="L61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+      <c r="L61" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M61">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -2904,18 +3271,24 @@
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="K62">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="L62" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M62">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2945,15 +3318,21 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="K63">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="L63" t="s">
+        <v>0.105</v>
+      </c>
+      <c r="L63" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M63">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="N63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -2983,21 +3362,27 @@
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="K64">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="L64" t="s">
+        <v>0.109</v>
+      </c>
+      <c r="L64" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M64">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="N64" t="s">
         <v>11</v>
       </c>
-      <c r="M64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -3024,15 +3409,21 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="K65">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="L65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.107</v>
+      </c>
+      <c r="L65" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M65">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -3062,15 +3453,21 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="K66">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="L66" t="s">
+        <v>0.106</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M66">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -3100,18 +3497,24 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="K67">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="L67" t="s">
+        <v>0.107</v>
+      </c>
+      <c r="L67" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M67">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="N67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -3138,13 +3541,19 @@
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="K68">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="L68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+      <c r="L68" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M68">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3176,21 +3585,27 @@
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="K69">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="L69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" t="s">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M69">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>15</v>
+      </c>
+      <c r="O69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -3214,18 +3629,24 @@
         <v>0.04</v>
       </c>
       <c r="K70">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.107</v>
+      </c>
+      <c r="L70" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M70">
+        <v>8.09E-2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -3252,18 +3673,24 @@
         <v>5.45E-2</v>
       </c>
       <c r="K71">
-        <v>6.25E-2</v>
-      </c>
-      <c r="L71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L71" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="M71">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72">
         <v>13</v>
@@ -3287,15 +3714,21 @@
         <v>0.03</v>
       </c>
       <c r="K72">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="L72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.107</v>
+      </c>
+      <c r="L72" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M72">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -3325,18 +3758,24 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="K73">
-        <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="L73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.108</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M73">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -3363,18 +3802,24 @@
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="K74">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="L74" t="s">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L74" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M74">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="N74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -3401,18 +3846,24 @@
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="K75">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="L75" t="s">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M75">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="N75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="1">
         <v>6</v>
@@ -3439,18 +3890,24 @@
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="K76" s="1">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="L76" t="s">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L76" s="4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M76" s="1">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="N76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -3477,15 +3934,21 @@
         <v>5.91E-2</v>
       </c>
       <c r="K77">
-        <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="L77" t="s">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M77">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="N77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -3515,18 +3978,24 @@
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="K78">
-        <v>8.3900000000000002E-2</v>
-      </c>
-      <c r="L78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.109</v>
+      </c>
+      <c r="L78" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M78">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -3552,19 +4021,19 @@
       <c r="J79">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -3590,19 +4059,19 @@
       <c r="J80">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="L80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -3629,18 +4098,24 @@
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="K81">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="L81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L81" s="3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M81">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -3667,18 +4142,24 @@
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="K82">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="L82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L82" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="M82">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83">
         <v>8</v>
@@ -3705,18 +4186,24 @@
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="K83">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="L83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M83">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -3743,18 +4230,24 @@
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="K84">
-        <v>8.77E-2</v>
-      </c>
-      <c r="L84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.113</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M84">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>14</v>
@@ -3778,21 +4271,27 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K85">
-        <v>0.06</v>
-      </c>
-      <c r="L85" t="s">
-        <v>23</v>
-      </c>
-      <c r="M85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L85" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M85">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -3816,10 +4315,16 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K86">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="L86" t="s">
-        <v>23</v>
+        <v>0.108</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M86">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3829,15 +4334,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02149022-7C1E-734A-A269-E036E35CA0BA}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3869,18 +4379,24 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3907,10 +4423,16 @@
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="K2">
-        <v>5.5399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M2">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3930,12 +4452,12 @@
         <v>180.441</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -3962,15 +4484,21 @@
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="K4">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.02</v>
+      </c>
+      <c r="M4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -3985,12 +4513,12 @@
         <v>184.43100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -4017,15 +4545,21 @@
         <v>7.3700000000000002E-2</v>
       </c>
       <c r="K6">
-        <v>7.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.104</v>
+      </c>
+      <c r="L6">
+        <v>2E-3</v>
+      </c>
+      <c r="M6">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4040,12 +4574,12 @@
         <v>186.86600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4059,13 +4593,22 @@
       <c r="G8">
         <v>186.97499999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M8">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4092,15 +4635,21 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>5.5199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4115,12 +4664,12 @@
         <v>188.75700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -4147,15 +4696,21 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="K11">
-        <v>5.4600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L11">
+        <v>1E-3</v>
+      </c>
+      <c r="M11">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4170,12 +4725,12 @@
         <v>192.02099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4202,15 +4757,21 @@
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="K13">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L13">
+        <v>1E-4</v>
+      </c>
+      <c r="M13">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -4225,12 +4786,12 @@
         <v>192.797</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -4245,12 +4806,12 @@
         <v>192.80099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -4276,16 +4837,16 @@
       <c r="J16">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -4300,12 +4861,12 @@
         <v>192.911</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4320,12 +4881,12 @@
         <v>192.91499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -4352,12 +4913,12 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -4384,7 +4945,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4416,15 +4977,21 @@
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="K21">
-        <v>4.41E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M21">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4439,12 +5006,12 @@
         <v>195.39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -4471,15 +5038,21 @@
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="K23">
-        <v>4.82E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M23">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -4494,12 +5067,12 @@
         <v>196.65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -4526,15 +5099,21 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="K25">
-        <v>5.1799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="M25">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4549,12 +5128,12 @@
         <v>198.553</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4581,15 +5160,21 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="K27">
-        <v>9.4200000000000006E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L27">
+        <v>1E-3</v>
+      </c>
+      <c r="M27">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4604,12 +5189,12 @@
         <v>200.02099999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4636,15 +5221,21 @@
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="K29">
-        <v>6.8199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L29">
+        <v>1E-4</v>
+      </c>
+      <c r="M29">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4659,12 +5250,12 @@
         <v>201.126</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -4691,15 +5282,21 @@
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="K31">
-        <v>5.9900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.01</v>
+      </c>
+      <c r="M31">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -4714,12 +5311,12 @@
         <v>201.85599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -4746,15 +5343,21 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="K33">
-        <v>5.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L33">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M33">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -4769,12 +5372,12 @@
         <v>202.60900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -4801,15 +5404,21 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="K35">
-        <v>8.0699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.104</v>
+      </c>
+      <c r="L35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M35">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -4824,12 +5433,12 @@
         <v>203.79499999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -4856,15 +5465,21 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="K37">
-        <v>6.7199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M37">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4891,15 +5506,21 @@
         <v>7.7799999999999994E-2</v>
       </c>
       <c r="K38">
-        <v>4.9200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L38">
+        <v>1E-4</v>
+      </c>
+      <c r="M38">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4914,9 +5535,9 @@
         <v>207.124</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -4934,12 +5555,12 @@
         <v>207.148</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4954,12 +5575,12 @@
         <v>207.239</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -4986,15 +5607,21 @@
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="K42">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M42">
+        <v>6.4100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5009,12 +5636,12 @@
         <v>207.71199999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5038,15 +5665,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K44">
-        <v>5.1299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L44">
+        <v>1E-4</v>
+      </c>
+      <c r="M44">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -5061,12 +5694,12 @@
         <v>207.922</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -5093,15 +5726,21 @@
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K46">
-        <v>5.9799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M46">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -5116,12 +5755,12 @@
         <v>247.291</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5148,15 +5787,21 @@
         <v>3.4299999999999997E-2</v>
       </c>
       <c r="K48">
-        <v>7.51E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.105</v>
+      </c>
+      <c r="L48">
+        <v>1E-3</v>
+      </c>
+      <c r="M48">
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5171,12 +5816,12 @@
         <v>248.453</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
         <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5203,12 +5848,12 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
         <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5223,9 +5868,9 @@
         <v>256.31799999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -5255,10 +5900,16 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="K52">
-        <v>7.2800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M52">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -5278,12 +5929,12 @@
         <v>256.39800000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -5298,7 +5949,7 @@
         <v>256.41000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -5330,10 +5981,16 @@
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="K55">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L55">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M55">
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -5353,12 +6010,12 @@
         <v>257.26100000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -5385,15 +6042,21 @@
         <v>6.5199999999999994E-2</v>
       </c>
       <c r="K57">
-        <v>6.3799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L57">
+        <v>2E-3</v>
+      </c>
+      <c r="M57">
+        <v>6.4100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -5408,12 +6071,12 @@
         <v>257.55399999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -5440,15 +6103,21 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="K59">
-        <v>8.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.111</v>
+      </c>
+      <c r="L59">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M59">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -5463,12 +6132,12 @@
         <v>266.625</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -5495,15 +6164,21 @@
         <v>5.33E-2</v>
       </c>
       <c r="K61">
-        <v>6.6600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L61">
+        <v>1E-3</v>
+      </c>
+      <c r="M61">
+        <v>7.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -5518,12 +6193,12 @@
         <v>270.39999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -5550,18 +6225,24 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K63">
-        <v>9.06E-2</v>
-      </c>
-      <c r="L63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L63">
+        <v>2E-3</v>
+      </c>
+      <c r="M63">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>13</v>
@@ -5576,12 +6257,12 @@
         <v>274.20299999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -5608,15 +6289,21 @@
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="K65">
-        <v>6.59E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L65">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M65">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -5631,12 +6318,12 @@
         <v>276.85000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -5651,12 +6338,12 @@
         <v>276.86500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -5683,15 +6370,21 @@
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="K68">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L68">
+        <v>2E-3</v>
+      </c>
+      <c r="M68">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -5718,15 +6411,21 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K69">
-        <v>6.4600000000000005E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L69">
+        <v>2E-3</v>
+      </c>
+      <c r="M69">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -5741,12 +6440,12 @@
         <v>277.05700000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -5773,15 +6472,21 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="K71">
-        <v>8.4400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.111</v>
+      </c>
+      <c r="L71">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M71">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -5805,7 +6510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1560023-4D0B-984F-8008-558B230D9D08}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -5825,7 +6530,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5842,7 +6547,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5873,7 +6578,7 @@
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5968,7 +6673,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
